--- a/Hoi4 CWC Unit stats.xlsx
+++ b/Hoi4 CWC Unit stats.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="육군 Stats" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,30 +23,182 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="286">
-  <si>
-    <t xml:space="preserve">보병장비1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">보병장비2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">보병장비3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">보병장비4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">보병장비5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">보병장비6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공수부대1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">해병대1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="303">
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">보병장비</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">보병장비</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">보병장비</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">보병장비</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">보병장비</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">보병장비</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">공수부대</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">해병대</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">MBT1</t>
@@ -67,223 +219,1601 @@
     <t xml:space="preserve">MBT6</t>
   </si>
   <si>
-    <t xml:space="preserve">경전차1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경전차2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경전차3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경전차4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경전차5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경전차6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공수경전차1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공수경전차2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">보병장갑차1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">보병장갑차2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">보병장갑차3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">보병장갑차4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">보병장갑차5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">보병장갑차6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공수보장갑1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공수보장갑2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공수보장갑3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공수보장갑4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공수보장갑5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">차륜장갑차1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">차륜장갑차2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">차륜장갑차3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">차륜장갑차4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">차륜장갑차5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">상륙장갑차1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">상륙장갑차2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">상륙장갑차3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">상륙장갑차4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">차량1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">야포1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">야포2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">야포3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">자주포1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">자주포2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">자주포3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">자주포4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">차량로켓1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">차량로켓2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">차량로켓3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">차량로켓4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">자주대공미1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">자주대공미2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">자주대공미3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">자주대공미4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">자주대공포1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">자주대공포2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">자주대공포3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">자주대공포4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">수송헬기1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">수송헬기2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">수송헬기3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">수송헬기4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">수송헬기5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">정찰중대1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">차량정찰1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">장갑차정찰1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경전차정찰1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">헬기정찰1</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">경전차</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">경전차</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">경전차</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">경전차</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">경전차</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">경전차</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">공수경전차</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">공수경전차</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">보병장갑차</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">보병장갑차</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">보병장갑차</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">보병장갑차</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">보병장갑차</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">보병장갑차</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">공수보장갑</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">공수보장갑</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">공수보장갑</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">공수보장갑</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">공수보장갑</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">차륜장갑차</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">차륜장갑차</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">차륜장갑차</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">차륜장갑차</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">차륜장갑차</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">상륙장갑차</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">상륙장갑차</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">상륙장갑차</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">상륙장갑차</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">차량</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">야포</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">야포</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">야포</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">자주포</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">자주포</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">자주포</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">자주포</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">차량로켓</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">차량로켓</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">차량로켓</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">차량로켓</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">자주대공미</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">자주대공미</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">자주대공미</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">자주대공미</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">자주대공포</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">자주대공포</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">자주대공포</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">자주대공포</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">수송헬기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">수송헬기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">수송헬기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">수송헬기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">수송헬기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">정찰중대</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">차량정찰</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">장갑차정찰</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">경전차정찰</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">헬기정찰</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">무인기</t>
   </si>
   <si>
-    <t xml:space="preserve">공병중대1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">헌병대1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">정비중대1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">의무중대1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">헬기의무1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">보급중대1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">통신중대1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBT중대1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">야포중대1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">자주포중대1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">자주로켓중1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">대전차로켓1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">대전미사일1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">대공미사일1</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">공병중대</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">헌병대</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">정비중대</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">의무중대</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">헬기의무</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">보급중대</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">통신중대</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">MBT</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">중대</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">야포중대</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">자주포중대</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">자주로켓중</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">대전차로켓</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">대전미사일</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">대공미사일</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Base Stats</t>
@@ -520,124 +2050,884 @@
     <t xml:space="preserve">Amphibious</t>
   </si>
   <si>
-    <t xml:space="preserve">다목적기1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">다목적기2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">다목적기3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">다목적기4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">다목적기5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공격기1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공격기2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공격기3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">전투기1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">전투기2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">전투기3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">전투기4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">전투기5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">함재전투기1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">함재전투기2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">함재전투기3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">함재전폭기1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">함재전폭기2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">함재전폭기3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">함재전폭기4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">함재전폭기5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">무인기1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">무인기2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">무인기3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">수송기1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">수송기2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">수송기3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">전략폭격기1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">전략폭격기2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">전략폭격기3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">전략폭격기4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">전략폭격기5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">스텔스전략1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">스텔스전략2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">스텔스전략3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공격헬기1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공격헬기2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공격헬기3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공격헬기4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공격헬기5</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">다목적기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">다목적기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">다목적기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">다목적기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">다목적기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">공격기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">공격기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">공격기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">전투기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">전투기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">전투기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">전투기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">전투기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">함재전투기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">함재전투기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">함재전투기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">함재전폭기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">함재전폭기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">함재전폭기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">함재전폭기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">함재전폭기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">무인기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">무인기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">무인기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">수송기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">수송기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">수송기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">전략폭격기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">전략폭격기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">전략폭격기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">전략폭격기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">전략폭격기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">스텔스전략</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">스텔스전략</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">스텔스전략</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">공격헬기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">공격헬기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">공격헬기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">공격헬기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">공격헬기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Range</t>
@@ -673,160 +2963,1148 @@
     <t xml:space="preserve">Service manpower</t>
   </si>
   <si>
-    <t xml:space="preserve">구축함1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">구축함2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">구축함3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">구축함4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">구축함5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">구축함6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">구축함7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경순1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경순2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경순3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경순4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경순5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경순6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경순7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">중순1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">중순2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">중순3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">중순4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">중순5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">전함1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">전함2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">전함3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경항모1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경항모2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경항모3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경항모4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경항모5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">항모1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">항모2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">항모3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">항모4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">항모5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">대항모1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">대항모2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">대항모3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">대항모4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">잠수1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">잠수2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">잠수3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">잠수4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">잠수5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">잠수6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공잠1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공잠2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공잠3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공잠4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공잠5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">순원잠1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">순원잠2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">순원잠3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">순원잠4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">순원잠5</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구축함</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구축함</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구축함</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구축함</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구축함</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구축함</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구축함</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">경순</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">경순</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">경순</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">경순</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">경순</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">경순</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">경순</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">중순</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">중순</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">중순</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">중순</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">중순</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">전함</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">전함</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">전함</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">경항모</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">경항모</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">경항모</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">경항모</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">경항모</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">항모</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">항모</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">항모</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">항모</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">항모</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">대항모</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">대항모</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">대항모</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">대항모</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">잠수</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">잠수</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">잠수</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">잠수</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">잠수</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">잠수</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">공잠</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">공잠</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">공잠</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">공잠</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">공잠</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">순원잠</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">순원잠</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">순원잠</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">순원잠</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">순원잠</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Deck size</t>
@@ -881,6 +4159,57 @@
   </si>
   <si>
     <t xml:space="preserve">Shore bombardment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5년동안</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한국</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미국</t>
+  </si>
+  <si>
+    <t xml:space="preserve">보병장비</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지원장비</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전차</t>
+  </si>
+  <si>
+    <t xml:space="preserve">포...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전투기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전투기 : 전폭기 : 전략폭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전폭기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경함정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경함정 : 중함정 : 대항모</t>
+  </si>
+  <si>
+    <t xml:space="preserve">시간</t>
+  </si>
+  <si>
+    <t xml:space="preserve">중함정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1년</t>
+  </si>
+  <si>
+    <t xml:space="preserve">항모</t>
+  </si>
+  <si>
+    <t xml:space="preserve">잠수함</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +4336,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1024,10 +4353,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1040,6 +4365,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1048,7 +4385,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1057,6 +4394,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1087,312 +4428,312 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="28.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="15.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="4" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="5" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="6" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="4" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="5" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="12" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="5" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="4" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="20" style="7" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="5" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="20" style="6" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="4" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="5" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="4" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="26" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="5" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="4" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="32" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="5" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="4" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="37" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="5" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="4" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="42" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="45" style="5" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="45" style="4" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="47" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="5" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="4" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="50" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="5" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="4" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="54" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="5" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="4" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="58" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="5" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="4" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="62" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="5" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="4" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="66" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="70" style="5" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="70" style="4" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="72" style="0" width="12.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G1" s="2"/>
     </row>
-    <row r="2" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+    <row r="2" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AA2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AB2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AD2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AE2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AF2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AG2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AH2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AI2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AJ2" s="9" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AK2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AL2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AM2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AN2" s="8" t="s">
+      <c r="AN2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AO2" s="9" t="s">
+      <c r="AO2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AP2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AQ2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AR2" s="8" t="s">
+      <c r="AR2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AS2" s="9" t="s">
+      <c r="AS2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AT2" s="9" t="s">
+      <c r="AT2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AU2" s="8" t="s">
+      <c r="AU2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AV2" s="8" t="s">
+      <c r="AV2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AW2" s="9" t="s">
+      <c r="AW2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AX2" s="8" t="s">
+      <c r="AX2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AY2" s="8" t="s">
+      <c r="AY2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AZ2" s="8" t="s">
+      <c r="AZ2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="BA2" s="9" t="s">
+      <c r="BA2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="BB2" s="8" t="s">
+      <c r="BB2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="BC2" s="4" t="s">
+      <c r="BC2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BD2" s="4" t="s">
+      <c r="BD2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BE2" s="11" t="s">
+      <c r="BE2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="BF2" s="8" t="s">
+      <c r="BF2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="BG2" s="8" t="s">
+      <c r="BG2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="BH2" s="8" t="s">
+      <c r="BH2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="BI2" s="9" t="s">
+      <c r="BI2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="BJ2" s="8" t="s">
+      <c r="BJ2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="BK2" s="8" t="s">
+      <c r="BK2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="BL2" s="8" t="s">
+      <c r="BL2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="BM2" s="9" t="s">
+      <c r="BM2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="BN2" s="8" t="s">
+      <c r="BN2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="BO2" s="8" t="s">
+      <c r="BO2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="BP2" s="8" t="s">
+      <c r="BP2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="BQ2" s="8" t="s">
+      <c r="BQ2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="BR2" s="9" t="s">
+      <c r="BR2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="BS2" s="9"/>
-      <c r="BT2" s="8" t="s">
+      <c r="BS2" s="8"/>
+      <c r="BT2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="BU2" s="8" t="s">
+      <c r="BU2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="BV2" s="8" t="s">
+      <c r="BV2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="BW2" s="8" t="s">
+      <c r="BW2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="BX2" s="8" t="s">
+      <c r="BX2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="BY2" s="8" t="s">
+      <c r="BY2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="BZ2" s="10" t="s">
+      <c r="BZ2" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="CA2" s="8" t="s">
+      <c r="CA2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="CB2" s="10" t="s">
+      <c r="CB2" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="CC2" s="8" t="s">
+      <c r="CC2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="CD2" s="8" t="s">
+      <c r="CD2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="CE2" s="10" t="s">
+      <c r="CE2" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="CF2" s="10" t="s">
+      <c r="CF2" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="CG2" s="8" t="s">
+      <c r="CG2" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="CH2" s="8" t="s">
+      <c r="CH2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="CI2" s="8" t="s">
+      <c r="CI2" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="CJ2" s="8" t="s">
+      <c r="CJ2" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="CK2" s="8" t="s">
+      <c r="CK2" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="CL2" s="8" t="s">
+      <c r="CL2" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="CM2" s="8" t="s">
+      <c r="CM2" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="ALU2" s="4"/>
-      <c r="ALV2" s="4"/>
-      <c r="ALW2" s="4"/>
+      <c r="ALU2" s="1"/>
+      <c r="ALV2" s="1"/>
+      <c r="ALW2" s="1"/>
       <c r="ALX2" s="0"/>
       <c r="ALY2" s="0"/>
       <c r="ALZ2" s="0"/>
@@ -1408,460 +4749,415 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="12" t="s">
         <v>88</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="12" t="s">
         <v>89</v>
       </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="12" t="s">
         <v>90</v>
       </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="12" t="s">
         <v>91</v>
       </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="12" t="s">
         <v>92</v>
       </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="12" t="s">
         <v>93</v>
       </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="12" t="s">
         <v>94</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="BZ9" s="4" t="s">
+      <c r="BZ9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="CA9" s="4" t="s">
+      <c r="CA9" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="12" t="s">
         <v>97</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="BZ10" s="4"/>
-      <c r="CA10" s="4" t="s">
+      <c r="BZ10" s="1"/>
+      <c r="CA10" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="12" t="s">
         <v>99</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="BZ11" s="4"/>
-      <c r="CA11" s="4" t="s">
+      <c r="BZ11" s="1"/>
+      <c r="CA11" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="12" t="s">
         <v>101</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="BZ12" s="4"/>
-      <c r="CA12" s="4" t="s">
+      <c r="BZ12" s="1"/>
+      <c r="CA12" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="12" t="s">
         <v>103</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="BZ13" s="4"/>
-      <c r="CA13" s="4" t="s">
+      <c r="BZ13" s="1"/>
+      <c r="CA13" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="B14" s="1"/>
       <c r="G14" s="2"/>
-      <c r="BZ14" s="4" t="s">
+      <c r="BZ14" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="B15" s="1"/>
       <c r="G15" s="2"/>
-      <c r="BZ15" s="4" t="s">
+      <c r="BZ15" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="CA15" s="4"/>
+      <c r="CA15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="12" t="s">
         <v>107</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="BZ16" s="4" t="s">
+      <c r="BZ16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="CA16" s="4"/>
+      <c r="CA16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="12" t="s">
         <v>109</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="BZ17" s="4" t="s">
+      <c r="BZ17" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="CA17" s="4"/>
+      <c r="CA17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="12" t="s">
         <v>111</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="BZ18" s="4" t="s">
+      <c r="BZ18" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="CA18" s="4" t="s">
+      <c r="CA18" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="12" t="s">
         <v>113</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="BZ19" s="4"/>
-      <c r="CA19" s="4" t="s">
+      <c r="BZ19" s="1"/>
+      <c r="CA19" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="12" t="s">
         <v>114</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="BZ20" s="4" t="s">
+      <c r="BZ20" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="CA20" s="4"/>
+      <c r="CA20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="12" t="s">
         <v>116</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="BZ21" s="4" t="s">
+      <c r="BZ21" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="CA21" s="4"/>
+      <c r="CA21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="12" t="s">
         <v>118</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="BZ22" s="4" t="s">
+      <c r="BZ22" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="CA22" s="4" t="s">
+      <c r="CA22" s="12" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="12" t="s">
         <v>121</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="BZ23" s="4" t="s">
+      <c r="BZ23" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="CA23" s="4" t="s">
+      <c r="CA23" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="12" t="s">
         <v>124</v>
       </c>
       <c r="G24" s="2"/>
-      <c r="BZ24" s="4"/>
-      <c r="CA24" s="4" t="s">
+      <c r="BZ24" s="1"/>
+      <c r="CA24" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="12" t="s">
         <v>126</v>
       </c>
       <c r="G25" s="2"/>
-      <c r="BZ25" s="4"/>
-      <c r="CA25" s="4" t="s">
+      <c r="BZ25" s="1"/>
+      <c r="CA25" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="12" t="s">
         <v>128</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="BZ26" s="4" t="s">
+      <c r="BZ26" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="CA26" s="4" t="s">
+      <c r="CA26" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="12" t="s">
         <v>131</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="BZ27" s="4" t="s">
+      <c r="BZ27" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
+      <c r="B28" s="1"/>
       <c r="G28" s="2"/>
-      <c r="BZ28" s="4" t="s">
+      <c r="BZ28" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="CA28" s="4" t="s">
+      <c r="CA28" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
+      <c r="B29" s="1"/>
       <c r="G29" s="2"/>
-      <c r="BZ29" s="4"/>
-      <c r="CA29" s="4" t="s">
+      <c r="BZ29" s="1"/>
+      <c r="CA29" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="12" t="s">
         <v>137</v>
       </c>
       <c r="G30" s="2"/>
-      <c r="BZ30" s="4"/>
-      <c r="CA30" s="4" t="s">
+      <c r="BZ30" s="1"/>
+      <c r="CA30" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="12" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="12" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
+      <c r="B33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
+      <c r="B34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="12" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="12" t="s">
         <v>143</v>
       </c>
       <c r="G37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="13" t="s">
         <v>145</v>
       </c>
       <c r="G38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="13" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="13" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="13" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="13" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="13" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="12" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
+      <c r="B45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
+      <c r="B46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="13" t="s">
         <v>154</v>
       </c>
       <c r="G47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="11" t="s">
+      <c r="B48" s="1"/>
+      <c r="C48" s="13" t="s">
         <v>155</v>
       </c>
       <c r="G48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4"/>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="13" t="s">
         <v>157</v>
       </c>
       <c r="G49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4"/>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="13" t="s">
         <v>159</v>
       </c>
       <c r="G50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4"/>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="13" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4"/>
       <c r="B52" s="0"/>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="13" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="13" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="13" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1890,339 +5186,333 @@
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="28.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="5" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="12" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="5" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="4" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="5" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="4" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="20" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="5" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="4" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="5" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="4" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="28" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="5" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="4" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="31" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="5" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="4" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="5" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="4" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="39" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="5" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="4" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="44" style="0" width="12.83"/>
   </cols>
   <sheetData>
-    <row r="2" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="11"/>
-      <c r="D2" s="4" t="s">
+    <row r="2" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="X2" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="AA2" s="11" t="s">
+      <c r="AA2" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AC2" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="AD2" s="11" t="s">
+      <c r="AD2" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AE2" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AF2" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AG2" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AH2" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="AI2" s="11" t="s">
+      <c r="AI2" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AK2" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AL2" s="11" t="s">
+      <c r="AL2" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AM2" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AN2" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="AO2" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AP2" s="4" t="s">
+      <c r="AP2" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AQ2" s="11" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="12" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1"/>
-      <c r="C6" s="5"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1"/>
-      <c r="C7" s="5"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="0"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="4"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="4"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="1"/>
-      <c r="C15" s="5"/>
+      <c r="C15" s="4"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="4"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1"/>
-      <c r="C17" s="5"/>
+      <c r="C17" s="4"/>
       <c r="I17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1"/>
-      <c r="C19" s="5"/>
+      <c r="C19" s="4"/>
       <c r="I19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="1"/>
-      <c r="C20" s="5"/>
+      <c r="C20" s="4"/>
       <c r="I20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="4"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="4"/>
       <c r="I22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C23" s="5"/>
+      <c r="C23" s="4"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="12" t="s">
         <v>213</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="12" t="s">
         <v>214</v>
       </c>
       <c r="I25" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="12" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="12" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="13" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="13" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="13" t="s">
         <v>147</v>
       </c>
       <c r="I32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="13" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="13" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="13" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2244,8 +5534,8 @@
   </sheetPr>
   <dimension ref="A2:AMJ55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AT1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BE2" activeCellId="0" sqref="BE2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2254,200 +5544,200 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="28.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="17.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="4" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="5" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="11" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="5" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="4" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="18" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="5" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="4" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="5" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="4" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="26" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="5" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="4" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="31" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="5" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="4" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="36" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="5" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="4" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="40" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="5" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="4" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="46" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="5" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="4" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="51" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="5" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="4" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="56" style="0" width="12.83"/>
   </cols>
   <sheetData>
-    <row r="2" s="4" customFormat="true" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="12"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="4" t="s">
+    <row r="2" s="1" customFormat="true" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="14"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="Y2" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AC2" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="AD2" s="11" t="s">
+      <c r="AD2" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AE2" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AF2" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AG2" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AH2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="AI2" s="11" t="s">
+      <c r="AI2" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AK2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AL2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="AM2" s="11" t="s">
+      <c r="AM2" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AN2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="AO2" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AP2" s="4" t="s">
+      <c r="AP2" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="AQ2" s="4" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="AR2" s="4" t="s">
+      <c r="AR2" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AS2" s="11" t="s">
+      <c r="AS2" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="AT2" s="4" t="s">
+      <c r="AT2" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="AU2" s="4" t="s">
+      <c r="AU2" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="AV2" s="4" t="s">
+      <c r="AV2" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="AW2" s="4" t="s">
+      <c r="AW2" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="AX2" s="11" t="s">
+      <c r="AX2" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="AY2" s="4" t="s">
+      <c r="AY2" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="AZ2" s="4" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="BA2" s="4" t="s">
+      <c r="BA2" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="BB2" s="4" t="s">
+      <c r="BB2" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="BC2" s="11" t="s">
+      <c r="BC2" s="3" t="s">
         <v>267</v>
       </c>
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="12" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="12" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2455,12 +5745,12 @@
       <c r="B5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="12" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="12" t="s">
         <v>268</v>
       </c>
     </row>
@@ -2468,17 +5758,17 @@
       <c r="B8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="12" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="12" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2489,15 +5779,15 @@
       <c r="B13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="12" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="12" t="s">
         <v>270</v>
       </c>
     </row>
@@ -2505,12 +5795,12 @@
       <c r="B16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="12" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="12" t="s">
         <v>272</v>
       </c>
     </row>
@@ -2518,12 +5808,12 @@
       <c r="B19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="12" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="12" t="s">
         <v>274</v>
       </c>
     </row>
@@ -2531,7 +5821,7 @@
       <c r="B22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="12" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2539,7 +5829,7 @@
       <c r="B24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="12" t="s">
         <v>275</v>
       </c>
     </row>
@@ -2550,10 +5840,10 @@
       <c r="B27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="12" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2561,13 +5851,13 @@
       <c r="B29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="12" t="s">
         <v>276</v>
       </c>
       <c r="I30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="12" t="s">
         <v>277</v>
       </c>
     </row>
@@ -2575,130 +5865,130 @@
       <c r="B32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="I33" s="4"/>
+      <c r="I33" s="1"/>
       <c r="J33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="I34" s="4"/>
+      <c r="I34" s="1"/>
       <c r="J34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="1"/>
-      <c r="I35" s="4"/>
+      <c r="I35" s="1"/>
       <c r="J35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="I36" s="4"/>
+      <c r="I36" s="1"/>
       <c r="J36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="I37" s="4"/>
+      <c r="I37" s="1"/>
       <c r="J37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="1"/>
-      <c r="I38" s="4"/>
+      <c r="I38" s="1"/>
       <c r="J38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="1"/>
-      <c r="I39" s="4"/>
+      <c r="I39" s="1"/>
       <c r="J39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="12" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="12" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="13" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="4"/>
-      <c r="C43" s="11" t="s">
+      <c r="B43" s="1"/>
+      <c r="C43" s="13" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="4"/>
-      <c r="C44" s="11" t="s">
+      <c r="B44" s="1"/>
+      <c r="C44" s="13" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="4"/>
-      <c r="C45" s="11" t="s">
+      <c r="B45" s="1"/>
+      <c r="C45" s="13" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="4"/>
-      <c r="C46" s="11" t="s">
+      <c r="B46" s="1"/>
+      <c r="C46" s="13" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="4"/>
-      <c r="C47" s="11" t="s">
+      <c r="B47" s="1"/>
+      <c r="C47" s="13" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="13" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="13" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="13" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="12" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="12" t="s">
         <v>285</v>
       </c>
     </row>
@@ -2718,17 +6008,247 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="F7:U23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T19" activeCellId="0" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="1" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="15" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="12.83"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G7" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G9" s="0" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>60000</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>54000</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>950</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="R17" s="15" t="n">
+        <v>100</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="R19" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" s="0" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="T20" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>4800</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Hoi4 CWC Unit stats.xlsx
+++ b/Hoi4 CWC Unit stats.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="357">
   <si>
     <r>
       <rPr>
@@ -4200,6 +4200,12 @@
     <t xml:space="preserve">시간</t>
   </si>
   <si>
+    <t xml:space="preserve">총</t>
+  </si>
+  <si>
+    <t xml:space="preserve">존나싸긴한데..</t>
+  </si>
+  <si>
     <t xml:space="preserve">중함정</t>
   </si>
   <si>
@@ -4209,7 +4215,163 @@
     <t xml:space="preserve">항모</t>
   </si>
   <si>
+    <t xml:space="preserve">차량장비</t>
+  </si>
+  <si>
+    <t xml:space="preserve">더럽게싸게</t>
+  </si>
+  <si>
     <t xml:space="preserve">잠수함</t>
+  </si>
+  <si>
+    <t xml:space="preserve">싸게?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">더싸게?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경전수준?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">상륙장갑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">견인포</t>
+  </si>
+  <si>
+    <t xml:space="preserve">신자유주의~!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">자주대공</t>
+  </si>
+  <si>
+    <t xml:space="preserve">차량화로켓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">공격기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">함재전투기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전략폭격기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">다목적기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">함재전폭기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">수송기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">수헬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">공헬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">표준함정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">초중함정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">대형항모</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경항모</t>
+  </si>
+  <si>
+    <t xml:space="preserve">표준항모</t>
+  </si>
+  <si>
+    <t xml:space="preserve">재래잠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">핵공잠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">핵순잠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">보병장비1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">차량장비1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">대전차포</t>
+  </si>
+  <si>
+    <t xml:space="preserve">대전차미사일</t>
+  </si>
+  <si>
+    <t xml:space="preserve">대공미사일</t>
+  </si>
+  <si>
+    <t xml:space="preserve">견인포1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경전차1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">장갑차1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">상륙장갑차1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">자주대공포1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">자주대공미사일1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전차1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">자주포1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">차량화로켓1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">무인기1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">공격기1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">수송기1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전투기1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">다목적1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전략폭1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경함포1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">중함포1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vls1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cruise vls1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어뢰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tube cruise 1</t>
   </si>
 </sst>
 </file>
@@ -4336,7 +4498,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4397,10 +4559,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -4420,8 +4578,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6008,17 +6166,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="F7:U23"/>
+  <dimension ref="A7:AE120"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T19" activeCellId="0" sqref="T19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I131" activeCellId="0" sqref="I131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="1" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="15" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="12.83"/>
   </cols>
   <sheetData>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6136,7 +6292,7 @@
       <c r="P17" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="R17" s="15" t="n">
+      <c r="R17" s="0" t="n">
         <v>100</v>
       </c>
       <c r="S17" s="0" t="n">
@@ -6176,13 +6332,13 @@
       <c r="P19" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="R19" s="15" t="n">
+      <c r="R19" s="0" t="n">
         <v>4</v>
       </c>
       <c r="S19" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="T19" s="15" t="n">
+      <c r="T19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="U19" s="0" t="s">
@@ -6190,8 +6346,14 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>300</v>
+      </c>
       <c r="F20" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>1</v>
@@ -6203,12 +6365,12 @@
         <v>13</v>
       </c>
       <c r="T20" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F21" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>0</v>
@@ -6224,8 +6386,14 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>305</v>
+      </c>
       <c r="F22" s="0" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>5</v>
@@ -6246,6 +6414,1877 @@
       </c>
       <c r="G23" s="0" t="n">
         <v>4800</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I25" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I27" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="R29" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G31" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>280</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>280</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>280</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="M34" s="0" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I35" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G36" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E37" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="N37" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="P37" s="0" t="n">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I44" s="0" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M57" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P57" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="R57" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="S57" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="T57" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="V57" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="W57" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X57" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="P59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="R61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X61" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M62" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X62" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H67" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="K67" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L67" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M67" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O67" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q67" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="R67" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S67" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="W67" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X67" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y67" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA67" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="AB67" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC67" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD67" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD68" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q69" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R69" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S69" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB69" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC69" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD69" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H71" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M71" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O71" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W71" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X71" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y71" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G72" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H72" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L72" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M72" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O72" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="W72" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X72" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y72" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB72" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC72" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD72" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C76" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G76" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H76" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J76" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="K76" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L76" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M76" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O76" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="P76" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q76" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G77" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M77" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R77" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q78" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R78" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="O79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P79" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G80" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H80" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J80" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K80" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L80" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M80" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H81" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J81" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K81" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L81" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M81" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R81" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G86" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="H86" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I86" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K86" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="L86" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M86" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O86" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="P86" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q86" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="U86" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="V86" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="W86" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X86" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y86" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA86" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="AB86" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC86" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD86" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE86" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S87" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X87" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y87" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA87" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB87" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC87" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD87" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE87" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G88" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I88" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O88" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P88" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R88" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S88" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA88" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB88" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC88" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD88" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE88" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U89" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V89" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W89" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X89" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y89" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G90" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P91" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q91" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R91" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S91" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V91" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="W91" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X91" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y91" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA92" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB92" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC92" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD92" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE92" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C95" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C105" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H105" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="I105" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J105" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K105" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M105" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="N105" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O105" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P105" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q105" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="T105" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U105" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V105" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="W105" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="S107" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T107" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U107" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V107" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="W107" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F110" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H110" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I110" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J110" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K110" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M110" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O110" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P110" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q110" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S110" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T110" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U110" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V110" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W110" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="M111" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O111" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P111" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q111" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S111" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T111" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U111" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V111" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="W111" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C114" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="F114" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G114" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H114" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I114" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F116" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G116" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H116" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I116" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F119" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G119" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H119" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I119" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F120" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G120" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H120" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I120" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Hoi4 CWC Unit stats.xlsx
+++ b/Hoi4 CWC Unit stats.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="364">
   <si>
     <r>
       <rPr>
@@ -4372,6 +4372,27 @@
   </si>
   <si>
     <t xml:space="preserve">tube cruise 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">보병무기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">상륙장갑차</t>
+  </si>
+  <si>
+    <t xml:space="preserve">포병</t>
+  </si>
+  <si>
+    <t xml:space="preserve">로켓포</t>
+  </si>
+  <si>
+    <t xml:space="preserve">대전차로켓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">자주대공포</t>
+  </si>
+  <si>
+    <t xml:space="preserve">자주대공미사</t>
   </si>
 </sst>
 </file>
@@ -4498,7 +4519,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4556,6 +4577,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6166,10 +6191,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A7:AE120"/>
+  <dimension ref="A7:AE131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I131" activeCellId="0" sqref="I131"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P128" activeCellId="0" sqref="P128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8287,6 +8312,271 @@
         <v>3</v>
       </c>
     </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F124" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="G124" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="I124" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="J124" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="K124" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="L124" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="M124" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="N124" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="O124" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="P124" s="0" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B125" s="0" t="n">
+        <v>1940</v>
+      </c>
+      <c r="D125" s="0" t="n">
+        <v>1940</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B126" s="0" t="n">
+        <v>1960</v>
+      </c>
+      <c r="D126" s="0" t="n">
+        <v>1960</v>
+      </c>
+      <c r="F126" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G126" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O126" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P126" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B127" s="15" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D127" s="15" t="n">
+        <v>1980</v>
+      </c>
+      <c r="F127" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I127" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J127" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K127" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M127" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N127" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="O127" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="P127" s="15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B128" s="0" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D128" s="0" t="n">
+        <v>1990</v>
+      </c>
+      <c r="F128" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G128" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K128" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L128" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M128" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N128" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O128" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P128" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B129" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D129" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F129" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G129" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I129" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J129" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K129" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L129" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M129" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N129" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O129" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P129" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B130" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D130" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="G130" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J130" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K130" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="L130" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B131" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D131" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G131" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J131" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K131" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L131" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M131" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N131" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O131" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P131" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Hoi4 CWC Unit stats.xlsx
+++ b/Hoi4 CWC Unit stats.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="562">
   <si>
     <r>
       <rPr>
@@ -4335,6 +4335,354 @@
   </si>
   <si>
     <t xml:space="preserve">SR72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">함포..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어뢰..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">대공포..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">튜브순항미</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ciws</t>
+  </si>
+  <si>
+    <t xml:space="preserve">수직순항미</t>
+  </si>
+  <si>
+    <t xml:space="preserve">기뢰..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">대함미사일</t>
+  </si>
+  <si>
+    <t xml:space="preserve">소나..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">대함순항미</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방음타일..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">엔진</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사통</t>
+  </si>
+  <si>
+    <t xml:space="preserve">폭뢰..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">레이더..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">대공/대수상</t>
+  </si>
+  <si>
+    <t xml:space="preserve">격벽..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사통..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">엔진..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">대잡헬기..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">프리깃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">구축함</t>
+  </si>
+  <si>
+    <t xml:space="preserve">스크린돌파확률</t>
+  </si>
+  <si>
+    <t xml:space="preserve">대잠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">종이장갑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">피돼지</t>
+  </si>
+  <si>
+    <t xml:space="preserve">콘보이사냥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">스나이퍼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">순양함</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000~25000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25000~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">대잠헬기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">중형함정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">원자력잠수함</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아크로열</t>
+  </si>
+  <si>
+    <t xml:space="preserve">에식스</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이오지마</t>
+  </si>
+  <si>
+    <t xml:space="preserve">엔터프라이즈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">타라와</t>
+  </si>
+  <si>
+    <t xml:space="preserve">니미츠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">와스프</t>
+  </si>
+  <si>
+    <t xml:space="preserve">샤를드골</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아메리카</t>
+  </si>
+  <si>
+    <t xml:space="preserve">퀸엘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">제럴드r포드</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0~12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24~96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48~192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96~384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2slot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4slot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8slot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0~4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0~8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0~16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0~32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">잠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">프</t>
+  </si>
+  <si>
+    <t xml:space="preserve">구</t>
+  </si>
+  <si>
+    <t xml:space="preserve">순</t>
+  </si>
+  <si>
+    <t xml:space="preserve">항</t>
+  </si>
+  <si>
+    <t xml:space="preserve">원잠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1slot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">중순항대함</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경함정함체</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">대공/어뢰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">기뢰/소해</t>
+  </si>
+  <si>
+    <t xml:space="preserve">폭뢰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">예인소나</t>
+  </si>
+  <si>
+    <t xml:space="preserve">소나</t>
+  </si>
+  <si>
+    <t xml:space="preserve">대수상레이더</t>
+  </si>
+  <si>
+    <t xml:space="preserve">대공레이더</t>
+  </si>
+  <si>
+    <t xml:space="preserve">격벽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">중형함정함체</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VLS/주포</t>
+  </si>
+  <si>
+    <t xml:space="preserve">중함정함체</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CML/HCML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CML/HCML/VLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">초중함정함체</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VLS/주포/CML/HCML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">강습상륙함</t>
+  </si>
+  <si>
+    <t xml:space="preserve">항공모함</t>
+  </si>
+  <si>
+    <t xml:space="preserve">대형항공모함</t>
+  </si>
+  <si>
+    <t xml:space="preserve">퀸엘리자베스</t>
+  </si>
+  <si>
+    <t xml:space="preserve">제럴드포드</t>
   </si>
 </sst>
 </file>
@@ -4384,12 +4732,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -4461,7 +4815,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4526,6 +4880,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -4535,7 +4897,220 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>75960</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>154800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="이미지 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="812520" y="35310960"/>
+          <a:ext cx="4952880" cy="4381200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>56880</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>145440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="이미지 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="812520" y="40025160"/>
+          <a:ext cx="4933800" cy="4371840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28080</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>106920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="이미지 3" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="812520" y="44739360"/>
+          <a:ext cx="4905000" cy="4333680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>18720</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>78120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="이미지 4" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="812520" y="49453560"/>
+          <a:ext cx="4895640" cy="4304880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6188,10 +6763,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A7:AE152"/>
+  <dimension ref="A7:AE348"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H156" activeCellId="0" sqref="H156"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A180" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G194" activeCellId="0" sqref="G194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8948,6 +9523,1423 @@
         <v>445</v>
       </c>
     </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H158" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="K158" s="0" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H159" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="K159" s="0" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H160" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="K160" s="0" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H161" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="K161" s="0" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H162" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="K162" s="0" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H163" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="K163" s="0" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H164" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="K164" s="0" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B165" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="H165" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="K165" s="0" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B166" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="H166" s="0" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H167" s="0" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H169" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="I169" s="0" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H170" s="0" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H171" s="0" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H172" s="0" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H173" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B176" s="0" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B181" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="N181" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="O181" s="0" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I184" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="J184" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="K184" s="0" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I185" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="J185" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="K185" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M185" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="N185" s="0" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B186" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="D186" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="E186" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F186" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="G186" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="I186" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="M186" s="6"/>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D187" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="E187" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="F187" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="G187" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="I187" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J187" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="K187" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M187" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="N187" s="0" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D188" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="E188" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="F188" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="G188" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="I188" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="J188" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="K188" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="M188" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="N188" s="0" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B189" s="0" t="n">
+        <v>1940</v>
+      </c>
+      <c r="D189" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E189" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F189" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G189" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I189" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="K189" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="M189" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B190" s="0" t="n">
+        <v>1960</v>
+      </c>
+      <c r="D190" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E190" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F190" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I190" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="J190" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K190" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="M190" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N190" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B191" s="15" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D191" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E191" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F191" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G191" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I191" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="J191" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K191" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="M191" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N191" s="15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B192" s="0" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D192" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E192" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F192" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I192" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="J192" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="K192" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M192" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N192" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B193" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D193" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E193" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F193" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I193" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J193" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K193" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M193" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N193" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B194" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D194" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E194" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F194" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I194" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="J194" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="K194" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="M194" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N194" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B195" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D195" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E195" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F195" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I195" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J195" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K195" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="M195" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N195" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C197" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="D197" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="E197" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F197" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="G197" s="0" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D198" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E198" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F198" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="G198" s="0" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D199" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="E199" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="F199" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="G199" s="0" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C201" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="D201" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="E201" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="F201" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="G201" s="0" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D202" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E202" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F202" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G202" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I202" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="J202" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="K202" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="L202" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="M202" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="N202" s="0" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D203" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="E203" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="F203" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="G203" s="0" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C204" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="D204" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E204" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F204" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="G204" s="0" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F205" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G205" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I211" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="J211" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="K211" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="L211" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="M211" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="N211" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="O211" s="0" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="I212" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="J212" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="N212" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="O212" s="0" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I214" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="J214" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="N214" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="O214" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I215" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="J215" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="K215" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="L215" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="M215" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="N215" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="O215" s="0" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I218" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="J218" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="K218" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="L218" s="16"/>
+      <c r="M218" s="16"/>
+      <c r="N218" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="O218" s="0" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I219" s="16"/>
+      <c r="J219" s="16"/>
+      <c r="N219" s="16"/>
+      <c r="O219" s="16"/>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I221" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="J221" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="N221" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="O221" s="0" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I222" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="J222" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="K222" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="L222" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="M222" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="N222" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="O222" s="0" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="I240" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="J240" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="K240" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="L240" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="M240" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="N240" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="O240" s="0" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I241" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="J241" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="N241" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="O241" s="0" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I243" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="J243" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="N243" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="O243" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I244" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="J244" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="K244" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="L244" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="M244" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="N244" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="O244" s="0" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I248" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="J248" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="K248" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="L248" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="M248" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="N248" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="O248" s="0" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I249" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="O249" s="0" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I251" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="J251" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="N251" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="O251" s="0" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I252" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="J252" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="K252" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="L252" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="M252" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="N252" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="O252" s="0" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="I269" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="J269" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="K269" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="L269" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="M269" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="N269" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="O269" s="0" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I270" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="J270" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="N270" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="O270" s="0" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I272" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="J272" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="N272" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="O272" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I273" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="J273" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="K273" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="L273" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="M273" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="N273" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="O273" s="0" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I277" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="J277" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="K277" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="L277" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="M277" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="N277" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="O277" s="0" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I278" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="J278" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="N278" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="O278" s="0" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I280" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="J280" s="16" t="s">
+        <v>543</v>
+      </c>
+      <c r="N280" s="16" t="s">
+        <v>543</v>
+      </c>
+      <c r="O280" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I281" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="J281" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="K281" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="L281" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="M281" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="N281" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="O281" s="0" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="I298" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="J298" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="K298" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="L298" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="M298" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="N298" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="O298" s="0" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I299" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="J299" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="N299" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="O299" s="0" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I301" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="J301" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="N301" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="O301" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I302" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="J302" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="K302" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="L302" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="M302" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="N302" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="O302" s="0" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I305" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="J305" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="K305" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="L305" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="M305" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="N305" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="O305" s="0" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I306" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="J306" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="N306" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="O306" s="0" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I309" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="J309" s="16" t="s">
+        <v>543</v>
+      </c>
+      <c r="N309" s="16" t="s">
+        <v>543</v>
+      </c>
+      <c r="O309" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I310" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="J310" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="K310" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="L310" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="M310" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="N310" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="O310" s="0" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J313" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="N313" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="O313" s="16" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I314" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="J314" s="16" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O335" s="6"/>
+      <c r="P335" s="6"/>
+      <c r="Q335" s="6"/>
+      <c r="R335" s="6"/>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D336" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="G336" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="J336" s="0" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D339" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="G339" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="J339" s="0" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B340" s="0" t="n">
+        <v>1940</v>
+      </c>
+      <c r="D340" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E340" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G340" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="H340" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="J340" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="K340" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B341" s="0" t="n">
+        <v>1960</v>
+      </c>
+      <c r="D341" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="E341" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G341" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H341" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="J341" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="K341" s="0" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="342" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B342" s="15" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D342" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="E342" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="G342" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H342" s="15" t="n">
+        <v>40</v>
+      </c>
+      <c r="J342" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="K342" s="15" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B343" s="0" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D343" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="E343" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G343" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="H343" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="J343" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K343" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B344" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D344" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E344" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G344" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H344" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="J344" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K344" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B345" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D345" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="E345" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G345" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="H345" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="J345" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="K345" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B346" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D346" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E346" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G346" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H346" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="J346" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K346" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D348" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G348" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="J348" s="0" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -8956,5 +10948,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12페이지 &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Hoi4 CWC Unit stats.xlsx
+++ b/Hoi4 CWC Unit stats.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="572">
   <si>
     <r>
       <rPr>
@@ -4214,57 +4214,54 @@
     <t xml:space="preserve">A10C</t>
   </si>
   <si>
+    <t xml:space="preserve">AH64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A10D</t>
+  </si>
+  <si>
     <t xml:space="preserve">RQ1</t>
   </si>
   <si>
-    <t xml:space="preserve">AH64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A10D</t>
+    <t xml:space="preserve">AH64D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F35D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A20</t>
   </si>
   <si>
     <t xml:space="preserve">MQ1</t>
   </si>
   <si>
-    <t xml:space="preserve">AH64D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F22D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F35D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A20</t>
+    <t xml:space="preserve">AH70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FA59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A20D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F60</t>
   </si>
   <si>
     <t xml:space="preserve">MQ9</t>
   </si>
   <si>
-    <t xml:space="preserve">AH70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A20D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MQ100</t>
-  </si>
-  <si>
     <t xml:space="preserve">AH70D</t>
   </si>
   <si>
@@ -4385,6 +4382,9 @@
     <t xml:space="preserve">대공/대수상</t>
   </si>
   <si>
+    <t xml:space="preserve">이지스시스템</t>
+  </si>
+  <si>
     <t xml:space="preserve">격벽..</t>
   </si>
   <si>
@@ -4683,6 +4683,36 @@
   </si>
   <si>
     <t xml:space="preserve">제럴드포드</t>
+  </si>
+  <si>
+    <t xml:space="preserve">부무장공격</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방어</t>
+  </si>
+  <si>
+    <t xml:space="preserve">대함레이더</t>
+  </si>
+  <si>
+    <t xml:space="preserve">내구성</t>
+  </si>
+  <si>
+    <t xml:space="preserve">공격</t>
+  </si>
+  <si>
+    <t xml:space="preserve">스크린돌파</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">대잠가시성</t>
+  </si>
+  <si>
+    <t xml:space="preserve">작전거리</t>
+  </si>
+  <si>
+    <t xml:space="preserve">최대속도</t>
   </si>
 </sst>
 </file>
@@ -4971,9 +5001,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>75960</xdr:colOff>
+      <xdr:colOff>75600</xdr:colOff>
       <xdr:row>236</xdr:row>
-      <xdr:rowOff>154800</xdr:rowOff>
+      <xdr:rowOff>154440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4987,7 +5017,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="812520" y="35310960"/>
-          <a:ext cx="4952880" cy="4381200"/>
+          <a:ext cx="4952520" cy="4380840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5008,9 +5038,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>56880</xdr:colOff>
+      <xdr:colOff>56520</xdr:colOff>
       <xdr:row>265</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:rowOff>145080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5024,7 +5054,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="812520" y="40025160"/>
-          <a:ext cx="4933800" cy="4371840"/>
+          <a:ext cx="4933440" cy="4371480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5045,9 +5075,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>28080</xdr:colOff>
+      <xdr:colOff>27720</xdr:colOff>
       <xdr:row>294</xdr:row>
-      <xdr:rowOff>106920</xdr:rowOff>
+      <xdr:rowOff>106560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5061,7 +5091,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="812520" y="44739360"/>
-          <a:ext cx="4905000" cy="4333680"/>
+          <a:ext cx="4904640" cy="4333320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5082,9 +5112,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>18720</xdr:colOff>
+      <xdr:colOff>18360</xdr:colOff>
       <xdr:row>323</xdr:row>
-      <xdr:rowOff>78120</xdr:rowOff>
+      <xdr:rowOff>77760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5098,7 +5128,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="812520" y="49453560"/>
-          <a:ext cx="4895640" cy="4304880"/>
+          <a:ext cx="4895280" cy="4304520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5120,7 +5150,7 @@
   </sheetPr>
   <dimension ref="A1:DC54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BW1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="CC3" activeCellId="0" sqref="CC3"/>
     </sheetView>
   </sheetViews>
@@ -5913,7 +5943,7 @@
   </sheetPr>
   <dimension ref="A2:AX35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AC1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AW2" activeCellId="0" sqref="AW2"/>
     </sheetView>
   </sheetViews>
@@ -6289,7 +6319,7 @@
   </sheetPr>
   <dimension ref="A2:AMJ55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AJ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -6763,10 +6793,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A7:AE348"/>
+  <dimension ref="A7:AE378"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A180" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G194" activeCellId="0" sqref="G194"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A341" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B363" activeCellId="0" sqref="B363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9076,13 +9106,13 @@
         <v>5</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="F129" s="0" t="n">
         <v>5</v>
@@ -9123,13 +9153,13 @@
         <v>6</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="G130" s="0" t="n">
         <v>4</v>
@@ -9152,13 +9182,13 @@
         <v>7</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>2020</v>
+        <v>2005</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>2020</v>
+        <v>2005</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>2020</v>
+        <v>2005</v>
       </c>
       <c r="G131" s="0" t="n">
         <v>5</v>
@@ -9299,14 +9329,8 @@
       <c r="M138" s="0" t="s">
         <v>400</v>
       </c>
-      <c r="N138" s="0" t="n">
-        <v>1995</v>
-      </c>
-      <c r="O138" s="0" t="s">
+      <c r="Q138" s="0" t="s">
         <v>405</v>
-      </c>
-      <c r="Q138" s="0" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9314,25 +9338,25 @@
         <v>5</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="D139" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="G139" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="G139" s="0" t="s">
+      <c r="I139" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="I139" s="0" t="s">
+      <c r="M139" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="O139" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="M139" s="0" t="s">
-        <v>408</v>
-      </c>
-      <c r="O139" s="0" t="s">
+      <c r="Q139" s="0" t="s">
         <v>410</v>
-      </c>
-      <c r="Q139" s="0" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9340,25 +9364,25 @@
         <v>6</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="D140" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="G140" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="G140" s="0" t="s">
+      <c r="I140" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="I140" s="0" t="s">
+      <c r="M140" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="O140" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="M140" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="O140" s="0" t="s">
+      <c r="Q140" s="0" t="s">
         <v>415</v>
-      </c>
-      <c r="Q140" s="0" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9366,25 +9390,25 @@
         <v>7</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>2020</v>
+        <v>2005</v>
       </c>
       <c r="D141" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="G141" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="G141" s="0" t="s">
+      <c r="I141" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="I141" s="0" t="s">
+      <c r="M141" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="M141" s="0" t="s">
+      <c r="O141" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="O141" s="0" t="s">
+      <c r="Q141" s="0" t="s">
         <v>421</v>
-      </c>
-      <c r="Q141" s="0" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="145" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9395,13 +9419,13 @@
         <v>340</v>
       </c>
       <c r="I145" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="K145" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="K145" s="15" t="s">
+      <c r="M145" s="15" t="s">
         <v>424</v>
-      </c>
-      <c r="M145" s="15" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9412,13 +9436,13 @@
         <v>1940</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L146" s="0" t="n">
         <v>1950</v>
       </c>
       <c r="M146" s="0" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9429,13 +9453,13 @@
         <v>1960</v>
       </c>
       <c r="E147" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="K147" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="K147" s="0" t="s">
+      <c r="M147" s="0" t="s">
         <v>429</v>
-      </c>
-      <c r="M147" s="0" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="148" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9446,16 +9470,16 @@
         <v>1980</v>
       </c>
       <c r="E148" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="G148" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="G148" s="15" t="s">
+      <c r="I148" s="15" t="s">
         <v>432</v>
       </c>
-      <c r="I148" s="15" t="s">
+      <c r="K148" s="15" t="s">
         <v>433</v>
-      </c>
-      <c r="K148" s="15" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9466,13 +9490,13 @@
         <v>1990</v>
       </c>
       <c r="E149" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="G149" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="G149" s="0" t="s">
+      <c r="I149" s="0" t="s">
         <v>436</v>
-      </c>
-      <c r="I149" s="0" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9480,16 +9504,16 @@
         <v>5</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="E150" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="I150" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="I150" s="0" t="s">
+      <c r="K150" s="0" t="s">
         <v>439</v>
-      </c>
-      <c r="K150" s="0" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9497,13 +9521,13 @@
         <v>6</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="E151" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="I151" s="0" t="s">
         <v>441</v>
-      </c>
-      <c r="I151" s="0" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9511,40 +9535,40 @@
         <v>7</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>2020</v>
+        <v>2005</v>
       </c>
       <c r="E152" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="I152" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="I152" s="0" t="s">
+      <c r="K152" s="0" t="s">
         <v>444</v>
-      </c>
-      <c r="K152" s="0" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H158" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="K158" s="0" t="s">
         <v>446</v>
-      </c>
-      <c r="K158" s="0" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H159" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="K159" s="0" t="s">
         <v>448</v>
-      </c>
-      <c r="K159" s="0" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H160" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="K160" s="0" t="s">
         <v>450</v>
-      </c>
-      <c r="K160" s="0" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9552,31 +9576,31 @@
         <v>358</v>
       </c>
       <c r="K161" s="0" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H162" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="K162" s="0" t="s">
         <v>453</v>
-      </c>
-      <c r="K162" s="0" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H163" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="K163" s="0" t="s">
         <v>455</v>
-      </c>
-      <c r="K163" s="0" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H164" s="0" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K164" s="0" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9584,10 +9608,10 @@
         <v>378</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K165" s="0" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9595,39 +9619,44 @@
         <v>358</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H167" s="0" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H169" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="I169" s="0" t="s">
         <v>460</v>
-      </c>
-      <c r="I169" s="0" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H170" s="0" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H171" s="0" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H172" s="0" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H173" s="0" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H174" s="0" t="s">
         <v>465</v>
       </c>
     </row>
@@ -9890,7 +9919,7 @@
         <v>5</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>5</v>
@@ -9922,7 +9951,7 @@
         <v>6</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>6</v>
@@ -9954,7 +9983,7 @@
         <v>7</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>2020</v>
+        <v>2005</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>7</v>
@@ -10238,7 +10267,7 @@
         <v>546</v>
       </c>
       <c r="K222" s="0" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L222" s="0" t="s">
         <v>547</v>
@@ -10250,7 +10279,7 @@
         <v>549</v>
       </c>
       <c r="O222" s="0" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10383,7 +10412,7 @@
         <v>546</v>
       </c>
       <c r="K252" s="0" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L252" s="0" t="s">
         <v>547</v>
@@ -10395,7 +10424,7 @@
         <v>549</v>
       </c>
       <c r="O252" s="0" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10534,7 +10563,7 @@
         <v>546</v>
       </c>
       <c r="K281" s="0" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L281" s="0" t="s">
         <v>547</v>
@@ -10546,7 +10575,7 @@
         <v>549</v>
       </c>
       <c r="O281" s="0" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10685,7 +10714,7 @@
         <v>546</v>
       </c>
       <c r="K310" s="0" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L310" s="0" t="s">
         <v>547</v>
@@ -10697,7 +10726,7 @@
         <v>549</v>
       </c>
       <c r="O310" s="0" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10938,6 +10967,213 @@
       </c>
       <c r="J348" s="0" t="n">
         <v>10000</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B351" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="D351" s="0" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B353" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="D353" s="0" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B354" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="D354" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B355" s="0" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B356" s="0" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B357" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B358" s="0" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B359" s="0" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B360" s="0" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B362" s="0" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B363" s="0" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B364" s="0" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B365" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="D365" s="0" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B366" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="D366" s="0" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B367" s="0" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B368" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B371" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="D371" s="0" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B372" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="D372" s="0" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B373" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="D373" s="0" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B374" s="0" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B375" s="0" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B376" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="D376" s="0" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B377" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="D377" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="E377" s="0" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B378" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="D378" s="0" t="s">
+        <v>566</v>
       </c>
     </row>
   </sheetData>

--- a/Hoi4 CWC Unit stats.xlsx
+++ b/Hoi4 CWC Unit stats.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="육군 Stats" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="587">
   <si>
     <r>
       <rPr>
@@ -2055,6 +2055,9 @@
     <t xml:space="preserve">공격기5</t>
   </si>
   <si>
+    <t xml:space="preserve">공격기6</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="true"/>
@@ -2157,6 +2160,470 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
+      <t xml:space="preserve">무인기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">무인기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">무인기3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">수송기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">수송기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">수송기3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">수송기4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">수송기5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">수송기6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">수송기7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">전략폭격기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">전략폭격기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">전략폭격기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">전략폭격기4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">스텔스전략</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">스텔스전략</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">스텔스전략3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">스텔스전략4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">스텔스전략5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">공격헬기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">공격헬기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">공격헬기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">공격헬기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">공격헬기5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">공격헬기6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">수송헬기1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">수송헬기2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">수송헬기3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">수송헬기4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">수송헬기5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air defense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air superiority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naval attack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naval targeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ground attack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strategic bomb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mine laying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mine sweeping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service manpower</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">함재전폭기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">함재전폭기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">함재전폭기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">함재전폭기</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">함재전폭기5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">함재전폭기6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
       <t xml:space="preserve">함재전투기</t>
     </r>
     <r>
@@ -2215,15 +2682,51 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">함재전폭기</t>
+    <t xml:space="preserve">1472km/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1485km/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">900km</t>
+  </si>
+  <si>
+    <t xml:space="preserve">930km</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전투기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">함재전투기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">다목적기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">함재전폭기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">공격기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">공격헬기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전략폭격기</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구축함</t>
     </r>
     <r>
       <rPr>
@@ -2245,7 +2748,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">함재전폭기</t>
+      <t xml:space="preserve">구축함</t>
     </r>
     <r>
       <rPr>
@@ -2267,7 +2770,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">함재전폭기</t>
+      <t xml:space="preserve">구축함</t>
     </r>
     <r>
       <rPr>
@@ -2289,7 +2792,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">함재전폭기</t>
+      <t xml:space="preserve">구축함</t>
     </r>
     <r>
       <rPr>
@@ -2303,21 +2806,81 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">함재전폭기5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">함재전폭기6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">무인기</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구축함</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구축함</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구축함</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">경순</t>
     </r>
     <r>
       <rPr>
@@ -2339,7 +2902,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">무인기</t>
+      <t xml:space="preserve">경순</t>
     </r>
     <r>
       <rPr>
@@ -2353,21 +2916,125 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">무인기3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">무인기4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">수송기</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">경순</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">경순</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">경순</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">경순</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">경순</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">중순</t>
     </r>
     <r>
       <rPr>
@@ -2389,7 +3056,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">수송기</t>
+      <t xml:space="preserve">중순</t>
     </r>
     <r>
       <rPr>
@@ -2411,7 +3078,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">수송기</t>
+      <t xml:space="preserve">중순</t>
     </r>
     <r>
       <rPr>
@@ -2433,7 +3100,51 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">전략폭격기</t>
+      <t xml:space="preserve">중순</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">중순</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">전함</t>
     </r>
     <r>
       <rPr>
@@ -2455,7 +3166,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">전략폭격기</t>
+      <t xml:space="preserve">전함</t>
     </r>
     <r>
       <rPr>
@@ -2477,7 +3188,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">전략폭격기</t>
+      <t xml:space="preserve">전함</t>
     </r>
     <r>
       <rPr>
@@ -2499,7 +3210,73 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">전략폭격기</t>
+      <t xml:space="preserve">경항모</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">경항모</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">경항모</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">경항모</t>
     </r>
     <r>
       <rPr>
@@ -2521,7 +3298,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">전략폭격기</t>
+      <t xml:space="preserve">경항모</t>
     </r>
     <r>
       <rPr>
@@ -2543,7 +3320,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">스텔스전략</t>
+      <t xml:space="preserve">항모</t>
     </r>
     <r>
       <rPr>
@@ -2565,7 +3342,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">스텔스전략</t>
+      <t xml:space="preserve">항모</t>
     </r>
     <r>
       <rPr>
@@ -2587,7 +3364,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">스텔스전략</t>
+      <t xml:space="preserve">항모</t>
     </r>
     <r>
       <rPr>
@@ -2609,7 +3386,51 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">공격헬기</t>
+      <t xml:space="preserve">항모</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">항모</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">대항모</t>
     </r>
     <r>
       <rPr>
@@ -2631,7 +3452,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">공격헬기</t>
+      <t xml:space="preserve">대항모</t>
     </r>
     <r>
       <rPr>
@@ -2653,7 +3474,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">공격헬기</t>
+      <t xml:space="preserve">대항모</t>
     </r>
     <r>
       <rPr>
@@ -2675,7 +3496,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">공격헬기</t>
+      <t xml:space="preserve">대항모</t>
     </r>
     <r>
       <rPr>
@@ -2689,54 +3510,15 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">공격헬기5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공격헬기6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air defense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air superiority</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naval attack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naval targeting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ground attack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strategic bomb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mine laying</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mine sweeping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service manpower</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구축함</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">잠수</t>
     </r>
     <r>
       <rPr>
@@ -2758,7 +3540,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">구축함</t>
+      <t xml:space="preserve">잠수</t>
     </r>
     <r>
       <rPr>
@@ -2780,7 +3562,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">구축함</t>
+      <t xml:space="preserve">잠수</t>
     </r>
     <r>
       <rPr>
@@ -2802,7 +3584,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">구축함</t>
+      <t xml:space="preserve">잠수</t>
     </r>
     <r>
       <rPr>
@@ -2824,7 +3606,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">구축함</t>
+      <t xml:space="preserve">잠수</t>
     </r>
     <r>
       <rPr>
@@ -2846,7 +3628,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">구축함</t>
+      <t xml:space="preserve">잠수</t>
     </r>
     <r>
       <rPr>
@@ -2868,29 +3650,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">구축함</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">경순</t>
+      <t xml:space="preserve">공잠</t>
     </r>
     <r>
       <rPr>
@@ -2912,7 +3672,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">경순</t>
+      <t xml:space="preserve">공잠</t>
     </r>
     <r>
       <rPr>
@@ -2934,7 +3694,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">경순</t>
+      <t xml:space="preserve">공잠</t>
     </r>
     <r>
       <rPr>
@@ -2956,7 +3716,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">경순</t>
+      <t xml:space="preserve">공잠</t>
     </r>
     <r>
       <rPr>
@@ -2978,7 +3738,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">경순</t>
+      <t xml:space="preserve">공잠</t>
     </r>
     <r>
       <rPr>
@@ -3000,51 +3760,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">경순</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">6</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">경순</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">중순</t>
+      <t xml:space="preserve">순원잠</t>
     </r>
     <r>
       <rPr>
@@ -3066,7 +3782,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">중순</t>
+      <t xml:space="preserve">순원잠</t>
     </r>
     <r>
       <rPr>
@@ -3088,7 +3804,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">중순</t>
+      <t xml:space="preserve">순원잠</t>
     </r>
     <r>
       <rPr>
@@ -3110,7 +3826,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">중순</t>
+      <t xml:space="preserve">순원잠</t>
     </r>
     <r>
       <rPr>
@@ -3132,7 +3848,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">중순</t>
+      <t xml:space="preserve">순원잠</t>
     </r>
     <r>
       <rPr>
@@ -3146,732 +3862,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">전함</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">전함</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">전함</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">경항모</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">경항모</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">경항모</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">경항모</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">경항모</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">항모</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">항모</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">항모</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">항모</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">항모</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">대항모</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">대항모</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">대항모</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">대항모</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">잠수</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">잠수</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">잠수</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">잠수</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">잠수</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">잠수</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">6</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">공잠</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">공잠</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">공잠</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">공잠</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">공잠</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">순원잠</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">순원잠</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">순원잠</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">순원잠</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">순원잠</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Deck size</t>
   </si>
   <si>
@@ -3947,9 +3937,6 @@
     <t xml:space="preserve">포...</t>
   </si>
   <si>
-    <t xml:space="preserve">전투기</t>
-  </si>
-  <si>
     <t xml:space="preserve">전투기 : 전폭기 : 전략폭</t>
   </si>
   <si>
@@ -4013,21 +4000,6 @@
     <t xml:space="preserve">차량화로켓</t>
   </si>
   <si>
-    <t xml:space="preserve">공격기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">함재전투기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">전략폭격기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">다목적기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">함재전폭기</t>
-  </si>
-  <si>
     <t xml:space="preserve">수송기</t>
   </si>
   <si>
@@ -4164,9 +4136,6 @@
   </si>
   <si>
     <t xml:space="preserve">다목적</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공격헬기</t>
   </si>
   <si>
     <t xml:space="preserve">F4</t>
@@ -4719,8 +4688,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0%"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -4845,7 +4815,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4903,6 +4873,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5001,9 +4975,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>75600</xdr:colOff>
+      <xdr:colOff>75240</xdr:colOff>
       <xdr:row>236</xdr:row>
-      <xdr:rowOff>154440</xdr:rowOff>
+      <xdr:rowOff>154080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5017,7 +4991,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="812520" y="35310960"/>
-          <a:ext cx="4952520" cy="4380840"/>
+          <a:ext cx="4952160" cy="4380480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5038,9 +5012,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>56520</xdr:colOff>
+      <xdr:colOff>56160</xdr:colOff>
       <xdr:row>265</xdr:row>
-      <xdr:rowOff>145080</xdr:rowOff>
+      <xdr:rowOff>144720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5054,7 +5028,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="812520" y="40025160"/>
-          <a:ext cx="4933440" cy="4371480"/>
+          <a:ext cx="4933080" cy="4371120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5075,9 +5049,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>27720</xdr:colOff>
+      <xdr:colOff>27360</xdr:colOff>
       <xdr:row>294</xdr:row>
-      <xdr:rowOff>106560</xdr:rowOff>
+      <xdr:rowOff>106200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5091,7 +5065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="812520" y="44739360"/>
-          <a:ext cx="4904640" cy="4333320"/>
+          <a:ext cx="4904280" cy="4332960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5112,9 +5086,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>18360</xdr:colOff>
+      <xdr:colOff>18000</xdr:colOff>
       <xdr:row>323</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:rowOff>77400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5128,7 +5102,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="812520" y="49453560"/>
-          <a:ext cx="4895280" cy="4304520"/>
+          <a:ext cx="4894920" cy="4304160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5150,7 +5124,7 @@
   </sheetPr>
   <dimension ref="A1:DC54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="CC3" activeCellId="0" sqref="CC3"/>
     </sheetView>
   </sheetViews>
@@ -5941,10 +5915,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:AX35"/>
+  <dimension ref="A2:AMJ92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AW2" activeCellId="0" sqref="AW2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C92" activeCellId="0" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5954,25 +5928,21 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="0" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="4" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="15" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="4" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="4" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="24" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="4" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="30" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="4" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="34" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="4" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="37" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="4" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="42" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="4" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="45" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="4" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="51" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="10" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="4" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="16" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="4" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="4" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="25" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="4" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="32" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="4" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="36" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="4" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="41" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="4" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="47" style="0" width="12.83"/>
   </cols>
   <sheetData>
     <row r="2" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6007,10 +5977,10 @@
       <c r="M2" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="3" t="s">
         <v>192</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -6025,19 +5995,19 @@
       <c r="S2" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="3" t="s">
         <v>198</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" s="3" t="s">
         <v>201</v>
       </c>
       <c r="Y2" s="1" t="s">
@@ -6052,28 +6022,28 @@
       <c r="AB2" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AC2" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AE2" s="3" t="s">
         <v>208</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AG2" s="1" t="s">
         <v>210</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AI2" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>213</v>
       </c>
       <c r="AK2" s="1" t="s">
@@ -6085,10 +6055,10 @@
       <c r="AM2" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AN2" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AO2" s="1" t="s">
         <v>218</v>
       </c>
       <c r="AP2" s="1" t="s">
@@ -6097,13 +6067,13 @@
       <c r="AQ2" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="AR2" s="1" t="s">
         <v>221</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AT2" s="3" t="s">
         <v>223</v>
       </c>
       <c r="AU2" s="1" t="s">
@@ -6115,9 +6085,24 @@
       <c r="AW2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AX2" s="3" t="s">
+      <c r="AX2" s="1" t="s">
         <v>227</v>
       </c>
+      <c r="AY2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="ALY2" s="0"/>
+      <c r="ALZ2" s="0"/>
+      <c r="AMA2" s="0"/>
+      <c r="AMB2" s="0"/>
+      <c r="AMC2" s="0"/>
+      <c r="AMD2" s="0"/>
+      <c r="AME2" s="0"/>
+      <c r="AMF2" s="0"/>
+      <c r="AMG2" s="0"/>
+      <c r="AMH2" s="0"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
@@ -6129,7 +6114,7 @@
     </row>
     <row r="4" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C4" s="4"/>
     </row>
@@ -6150,7 +6135,7 @@
         <v>122</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C8" s="4"/>
     </row>
@@ -6162,13 +6147,13 @@
     </row>
     <row r="10" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C11" s="4"/>
     </row>
@@ -6178,14 +6163,14 @@
     </row>
     <row r="13" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C13" s="4"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C14" s="4"/>
       <c r="J14" s="2"/>
@@ -6196,7 +6181,7 @@
     </row>
     <row r="16" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C16" s="4"/>
       <c r="J16" s="2"/>
@@ -6207,7 +6192,7 @@
     </row>
     <row r="18" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C18" s="4"/>
       <c r="J18" s="2"/>
@@ -6243,14 +6228,14 @@
     </row>
     <row r="24" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J25" s="2"/>
     </row>
@@ -6259,7 +6244,7 @@
         <v>156</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6299,6 +6284,379 @@
     <row r="35" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C35" s="13" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="0" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="0" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="0" t="n">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0"/>
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="0" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="15" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="0" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="4"/>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="L62" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="L63" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C71" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="0"/>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C85" s="3" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C86" s="3" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C87" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C88" s="3" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C89" s="3" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C90" s="3" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C91" s="3" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C92" s="3" t="n">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -6319,7 +6677,7 @@
   </sheetPr>
   <dimension ref="A2:AMJ55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -6355,160 +6713,160 @@
       <c r="B2" s="14"/>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="AX2" s="3" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="BC2" s="3" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
@@ -6523,7 +6881,7 @@
     </row>
     <row r="4" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6536,7 +6894,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="12" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6568,12 +6926,12 @@
         <v>122</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="12" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6581,12 +6939,12 @@
     </row>
     <row r="17" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="12" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="12" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6594,12 +6952,12 @@
     </row>
     <row r="20" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="12" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="12" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6615,7 +6973,7 @@
     </row>
     <row r="25" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="12" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6637,13 +6995,13 @@
     </row>
     <row r="30" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="12" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="I30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="12" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6651,14 +7009,14 @@
     </row>
     <row r="33" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="12" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="12" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="3"/>
@@ -6670,14 +7028,14 @@
     </row>
     <row r="36" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="3"/>
@@ -6697,7 +7055,7 @@
         <v>156</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6751,30 +7109,30 @@
         <v>169</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C51" s="13" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C52" s="13" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="12" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="12" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -6795,8 +7153,8 @@
   </sheetPr>
   <dimension ref="A7:AE378"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A341" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B363" activeCellId="0" sqref="B363"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K138" activeCellId="0" sqref="K138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6820,20 +7178,20 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G9" s="0" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="0" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F11" s="0" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>60000</v>
@@ -6861,7 +7219,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F13" s="0" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>12000</v>
@@ -6872,7 +7230,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F14" s="0" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>1000</v>
@@ -6894,7 +7252,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F16" s="0" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>6000</v>
@@ -6908,7 +7266,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F17" s="0" t="s">
-        <v>316</v>
+        <v>254</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>180</v>
@@ -6917,7 +7275,7 @@
         <v>950</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="R17" s="0" t="n">
         <v>100</v>
@@ -6931,7 +7289,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F18" s="0" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>60</v>
@@ -6945,7 +7303,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="0" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>10</v>
@@ -6957,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="R19" s="0" t="n">
         <v>4</v>
@@ -6969,18 +7327,18 @@
         <v>1</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>1</v>
@@ -6992,12 +7350,12 @@
         <v>13</v>
       </c>
       <c r="T20" s="0" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F21" s="0" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>0</v>
@@ -7014,13 +7372,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>5</v>
@@ -7045,10 +7403,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>40</v>
@@ -7103,7 +7461,7 @@
         <v>118</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>400</v>
@@ -7167,7 +7525,7 @@
         <v>116</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7204,10 +7562,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="L30" s="0" t="n">
         <v>80</v>
@@ -7256,7 +7614,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>200</v>
@@ -7288,7 +7646,7 @@
         <v>141</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7380,18 +7738,18 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>118</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>116</v>
@@ -7405,13 +7763,13 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7441,7 +7799,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="G43" s="0" t="n">
         <v>300</v>
@@ -7472,24 +7830,24 @@
         <v>88</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>338</v>
+        <v>258</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>316</v>
+        <v>254</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>339</v>
+        <v>255</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>340</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
       <c r="I46" s="0" t="n">
         <v>10</v>
@@ -7497,7 +7855,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="G47" s="0" t="n">
         <v>60</v>
@@ -7511,10 +7869,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="I48" s="0" t="n">
         <v>30</v>
@@ -7522,43 +7880,43 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="0" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>2</v>
@@ -7576,7 +7934,7 @@
         <v>6</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="K57" s="0" t="n">
         <v>2</v>
@@ -7591,19 +7949,19 @@
         <v>5</v>
       </c>
       <c r="P57" s="0" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="R57" s="0" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="S57" s="0" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="T57" s="0" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="V57" s="0" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="W57" s="0" t="n">
         <v>2</v>
@@ -7737,7 +8095,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="0" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>2</v>
@@ -7755,7 +8113,7 @@
         <v>6</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="K67" s="0" t="n">
         <v>2</v>
@@ -7773,7 +8131,7 @@
         <v>6</v>
       </c>
       <c r="Q67" s="0" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="R67" s="0" t="n">
         <v>2</v>
@@ -7785,7 +8143,7 @@
         <v>4</v>
       </c>
       <c r="V67" s="0" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="W67" s="0" t="n">
         <v>2</v>
@@ -7797,7 +8155,7 @@
         <v>4</v>
       </c>
       <c r="AA67" s="0" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="AB67" s="0" t="n">
         <v>2</v>
@@ -8057,7 +8415,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="0" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>2</v>
@@ -8075,7 +8433,7 @@
         <v>6</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="K76" s="0" t="n">
         <v>2</v>
@@ -8087,7 +8445,7 @@
         <v>4</v>
       </c>
       <c r="O76" s="0" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="P76" s="0" t="n">
         <v>2</v>
@@ -8257,7 +8615,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="0" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>2</v>
@@ -8266,7 +8624,7 @@
         <v>3</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="H86" s="0" t="n">
         <v>2</v>
@@ -8275,7 +8633,7 @@
         <v>3</v>
       </c>
       <c r="K86" s="0" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="L86" s="0" t="n">
         <v>2</v>
@@ -8284,7 +8642,7 @@
         <v>3</v>
       </c>
       <c r="O86" s="0" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="P86" s="0" t="n">
         <v>2</v>
@@ -8299,7 +8657,7 @@
         <v>5</v>
       </c>
       <c r="U86" s="0" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="V86" s="0" t="n">
         <v>2</v>
@@ -8314,7 +8672,7 @@
         <v>5</v>
       </c>
       <c r="AA86" s="0" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="AB86" s="0" t="n">
         <v>2</v>
@@ -8577,10 +8935,10 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C95" s="0" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8633,7 +8991,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C105" s="0" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>2</v>
@@ -8645,7 +9003,7 @@
         <v>4</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="I105" s="0" t="n">
         <v>2</v>
@@ -8657,7 +9015,7 @@
         <v>4</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="N105" s="0" t="n">
         <v>2</v>
@@ -8672,7 +9030,7 @@
         <v>5</v>
       </c>
       <c r="S105" s="0" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="T105" s="0" t="n">
         <v>2</v>
@@ -8818,10 +9176,10 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C114" s="0" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="F114" s="0" t="n">
         <v>2</v>
@@ -8916,10 +9274,10 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="0" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="E124" s="0" t="s">
         <v>116</v>
@@ -8928,34 +9286,34 @@
         <v>114</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="J124" s="0" t="s">
         <v>141</v>
       </c>
       <c r="K124" s="0" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="L124" s="0" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="M124" s="0" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="N124" s="0" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="O124" s="0" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="P124" s="0" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="Q124" s="0" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9022,44 +9380,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="15" t="n">
+    <row r="127" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="B127" s="15" t="n">
+      <c r="B127" s="16" t="n">
         <v>1980</v>
       </c>
-      <c r="D127" s="15" t="n">
+      <c r="D127" s="16" t="n">
         <v>1980</v>
       </c>
-      <c r="E127" s="15" t="n">
+      <c r="E127" s="16" t="n">
         <v>1980</v>
       </c>
-      <c r="F127" s="15" t="n">
+      <c r="F127" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="I127" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="J127" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="K127" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="M127" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="N127" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="O127" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="P127" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q127" s="15" t="n">
+      <c r="I127" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J127" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K127" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="M127" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N127" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="O127" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P127" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q127" s="16" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9218,27 +9576,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E134" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="G134" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="I134" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="K134" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="M134" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="O134" s="15" t="s">
+    <row r="134" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E134" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="G134" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="I134" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="K134" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="M134" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="O134" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="Q134" s="15" t="s">
-        <v>389</v>
+      <c r="Q134" s="16" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9257,54 +9615,54 @@
         <v>1960</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="H136" s="0" t="n">
         <v>1970</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="K136" s="0" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="M136" s="0" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="P136" s="0" t="n">
         <v>1970</v>
       </c>
       <c r="Q136" s="0" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="137" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="15" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="137" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="B137" s="15" t="n">
+      <c r="B137" s="16" t="n">
         <v>1980</v>
       </c>
-      <c r="D137" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="G137" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="I137" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="K137" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="M137" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q137" s="15" t="s">
-        <v>401</v>
+      <c r="D137" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="G137" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="I137" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="K137" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="M137" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q137" s="16" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9315,22 +9673,22 @@
         <v>1990</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="K138" s="0" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="M138" s="0" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="Q138" s="0" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9341,22 +9699,22 @@
         <v>1995</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="M139" s="0" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="O139" s="0" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="Q139" s="0" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9367,22 +9725,22 @@
         <v>2000</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="M140" s="0" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="O140" s="0" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="Q140" s="0" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9393,39 +9751,39 @@
         <v>2005</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="M141" s="0" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="O141" s="0" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="Q141" s="0" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="145" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E145" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="G145" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="I145" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="K145" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="M145" s="15" t="s">
-        <v>424</v>
+        <v>436</v>
+      </c>
+    </row>
+    <row r="145" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E145" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="G145" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="I145" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="K145" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="M145" s="16" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9436,13 +9794,13 @@
         <v>1940</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="L146" s="0" t="n">
         <v>1950</v>
       </c>
       <c r="M146" s="0" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9453,33 +9811,33 @@
         <v>1960</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="K147" s="0" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="M147" s="0" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="148" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="15" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="148" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="B148" s="15" t="n">
+      <c r="B148" s="16" t="n">
         <v>1980</v>
       </c>
-      <c r="E148" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="G148" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="I148" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="K148" s="15" t="s">
-        <v>433</v>
+      <c r="E148" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="G148" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="I148" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="K148" s="16" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9490,13 +9848,13 @@
         <v>1990</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="I149" s="0" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9507,13 +9865,13 @@
         <v>1995</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="I150" s="0" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="K150" s="0" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9524,10 +9882,10 @@
         <v>2000</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9538,153 +9896,153 @@
         <v>2005</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="K152" s="0" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H158" s="0" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="K158" s="0" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H159" s="0" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="K159" s="0" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H160" s="0" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="K160" s="0" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H161" s="0" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="K161" s="0" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H162" s="0" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="K162" s="0" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H163" s="0" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="K163" s="0" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H164" s="0" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="K164" s="0" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="0" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="K165" s="0" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="0" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H167" s="0" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H169" s="0" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="I169" s="0" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H170" s="0" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H171" s="0" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H172" s="0" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H173" s="0" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H174" s="0" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="0" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="0" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="N181" s="0" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="O181" s="0" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I184" s="0" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="J184" s="0" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="K184" s="0" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9698,45 +10056,45 @@
         <v>10000</v>
       </c>
       <c r="M185" s="0" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="N185" s="0" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="0" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="E186" s="0" t="n">
         <v>10000</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="G186" s="0" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="I186" s="0" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="M186" s="6"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D187" s="0" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="E187" s="0" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="G187" s="0" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="I187" s="0" t="n">
         <v>10</v>
@@ -9748,39 +10106,39 @@
         <v>100</v>
       </c>
       <c r="M187" s="0" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="N187" s="0" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D188" s="0" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="E188" s="0" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="G188" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="I188" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="J188" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="I188" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="J188" s="0" t="s">
-        <v>326</v>
-      </c>
       <c r="K188" s="0" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="M188" s="0" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="N188" s="0" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9806,10 +10164,10 @@
         <v>1</v>
       </c>
       <c r="J189" s="0" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="K189" s="0" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="M189" s="0" t="n">
         <v>1</v>
@@ -9832,13 +10190,13 @@
         <v>2</v>
       </c>
       <c r="I190" s="0" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="J190" s="0" t="n">
         <v>2</v>
       </c>
       <c r="K190" s="0" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="M190" s="0" t="n">
         <v>2</v>
@@ -9847,38 +10205,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="15" t="n">
+    <row r="191" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="B191" s="15" t="n">
+      <c r="B191" s="16" t="n">
         <v>1980</v>
       </c>
-      <c r="D191" s="15" t="n">
+      <c r="D191" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="E191" s="15" t="n">
+      <c r="E191" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="F191" s="15" t="n">
+      <c r="F191" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="G191" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="J191" s="15" t="n">
+      <c r="G191" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I191" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="J191" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="K191" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="M191" s="15" t="n">
+      <c r="K191" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="M191" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="N191" s="15" t="n">
+      <c r="N191" s="16" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9899,10 +10257,10 @@
         <v>4</v>
       </c>
       <c r="I192" s="0" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="J192" s="0" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="K192" s="0" t="n">
         <v>4</v>
@@ -9963,13 +10321,13 @@
         <v>6</v>
       </c>
       <c r="I194" s="0" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="J194" s="0" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="K194" s="0" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="M194" s="0" t="n">
         <v>6</v>
@@ -10012,19 +10370,19 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C197" s="0" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="E197" s="0" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="G197" s="0" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10043,33 +10401,33 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D199" s="0" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="E199" s="0" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="F199" s="0" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="G199" s="0" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C201" s="0" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="E201" s="0" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="G201" s="0" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10086,41 +10444,41 @@
         <v>4</v>
       </c>
       <c r="I202" s="0" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="J202" s="0" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="K202" s="0" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="L202" s="0" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="M202" s="0" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="N202" s="0" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D203" s="0" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="E203" s="0" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="G203" s="0" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C204" s="0" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>0</v>
@@ -10129,10 +10487,10 @@
         <v>0</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="G204" s="0" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10145,607 +10503,607 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I211" s="0" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="J211" s="0" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="K211" s="0" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="L211" s="0" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="M211" s="0" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="N211" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="O211" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="I212" s="0" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="J212" s="0" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="N212" s="0" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="O212" s="0" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I214" s="0" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="J214" s="0" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="N214" s="0" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="O214" s="0" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I215" s="0" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="J215" s="0" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="K215" s="0" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="L215" s="0" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="M215" s="0" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="N215" s="0" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="O215" s="0" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I218" s="0" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="J218" s="0" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="K218" s="0" t="s">
-        <v>506</v>
-      </c>
-      <c r="L218" s="16"/>
-      <c r="M218" s="16"/>
+        <v>521</v>
+      </c>
+      <c r="L218" s="17"/>
+      <c r="M218" s="17"/>
       <c r="N218" s="0" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="O218" s="0" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I219" s="16"/>
-      <c r="J219" s="16"/>
-      <c r="N219" s="16"/>
-      <c r="O219" s="16"/>
+      <c r="I219" s="17"/>
+      <c r="J219" s="17"/>
+      <c r="N219" s="17"/>
+      <c r="O219" s="17"/>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I221" s="0" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="J221" s="0" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="N221" s="0" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="O221" s="0" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I222" s="0" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="J222" s="0" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="K222" s="0" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="L222" s="0" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="M222" s="0" t="s">
-        <v>548</v>
-      </c>
-      <c r="N222" s="16" t="s">
-        <v>549</v>
+        <v>563</v>
+      </c>
+      <c r="N222" s="17" t="s">
+        <v>564</v>
       </c>
       <c r="O222" s="0" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="I240" s="0" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="J240" s="0" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="K240" s="0" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="L240" s="0" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="M240" s="0" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="N240" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="O240" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I241" s="0" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="J241" s="0" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="N241" s="0" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="O241" s="0" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I243" s="0" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="J243" s="0" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="N243" s="0" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="O243" s="0" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I244" s="0" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="J244" s="0" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="K244" s="0" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="L244" s="0" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="M244" s="0" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="N244" s="0" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="O244" s="0" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I248" s="0" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="J248" s="0" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="K248" s="0" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="L248" s="0" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="M248" s="0" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="N248" s="0" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="O248" s="0" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I249" s="0" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="O249" s="0" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I251" s="0" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="J251" s="0" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="N251" s="0" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="O251" s="0" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I252" s="0" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="J252" s="0" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="K252" s="0" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="L252" s="0" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="M252" s="0" t="s">
-        <v>548</v>
-      </c>
-      <c r="N252" s="17" t="s">
-        <v>549</v>
+        <v>563</v>
+      </c>
+      <c r="N252" s="18" t="s">
+        <v>564</v>
       </c>
       <c r="O252" s="0" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="I269" s="0" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="J269" s="0" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="K269" s="0" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="L269" s="0" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="M269" s="0" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="N269" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="O269" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I270" s="0" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="J270" s="0" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="N270" s="0" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="O270" s="0" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I272" s="0" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="J272" s="0" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="N272" s="0" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="O272" s="0" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I273" s="0" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="J273" s="0" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="K273" s="0" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="L273" s="0" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="M273" s="0" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="N273" s="0" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="O273" s="0" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I277" s="0" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="J277" s="0" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="K277" s="0" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="L277" s="0" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="M277" s="0" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="N277" s="0" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="O277" s="0" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I278" s="0" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="J278" s="0" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="N278" s="0" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="O278" s="0" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I280" s="0" t="s">
-        <v>478</v>
-      </c>
-      <c r="J280" s="16" t="s">
-        <v>543</v>
-      </c>
-      <c r="N280" s="16" t="s">
-        <v>543</v>
-      </c>
-      <c r="O280" s="16" t="s">
-        <v>544</v>
+        <v>493</v>
+      </c>
+      <c r="J280" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="N280" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="O280" s="17" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I281" s="16" t="s">
-        <v>545</v>
-      </c>
-      <c r="J281" s="17" t="s">
-        <v>546</v>
+      <c r="I281" s="17" t="s">
+        <v>560</v>
+      </c>
+      <c r="J281" s="18" t="s">
+        <v>561</v>
       </c>
       <c r="K281" s="0" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="L281" s="0" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="M281" s="0" t="s">
-        <v>548</v>
-      </c>
-      <c r="N281" s="17" t="s">
-        <v>549</v>
+        <v>563</v>
+      </c>
+      <c r="N281" s="18" t="s">
+        <v>564</v>
       </c>
       <c r="O281" s="0" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="I298" s="0" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="J298" s="0" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="K298" s="0" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="L298" s="0" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="M298" s="0" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="N298" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="O298" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I299" s="0" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="J299" s="0" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="N299" s="0" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="O299" s="0" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I301" s="0" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="J301" s="0" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="N301" s="0" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="O301" s="0" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I302" s="0" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="J302" s="0" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="K302" s="0" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="L302" s="0" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="M302" s="0" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="N302" s="0" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="O302" s="0" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I305" s="0" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="J305" s="0" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="K305" s="0" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="L305" s="0" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="M305" s="0" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="N305" s="0" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="O305" s="0" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I306" s="0" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="J306" s="0" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="N306" s="0" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="O306" s="0" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I309" s="0" t="s">
-        <v>478</v>
-      </c>
-      <c r="J309" s="16" t="s">
-        <v>543</v>
-      </c>
-      <c r="N309" s="16" t="s">
-        <v>543</v>
-      </c>
-      <c r="O309" s="16" t="s">
-        <v>544</v>
+        <v>493</v>
+      </c>
+      <c r="J309" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="N309" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="O309" s="17" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I310" s="16" t="s">
-        <v>545</v>
-      </c>
-      <c r="J310" s="16" t="s">
-        <v>546</v>
+      <c r="I310" s="17" t="s">
+        <v>560</v>
+      </c>
+      <c r="J310" s="17" t="s">
+        <v>561</v>
       </c>
       <c r="K310" s="0" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="L310" s="0" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="M310" s="0" t="s">
-        <v>548</v>
-      </c>
-      <c r="N310" s="17" t="s">
-        <v>549</v>
+        <v>563</v>
+      </c>
+      <c r="N310" s="18" t="s">
+        <v>564</v>
       </c>
       <c r="O310" s="0" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J313" s="16" t="s">
-        <v>542</v>
-      </c>
-      <c r="N313" s="16" t="s">
-        <v>542</v>
-      </c>
-      <c r="O313" s="16" t="s">
-        <v>542</v>
+      <c r="J313" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="N313" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="O313" s="17" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I314" s="16" t="s">
-        <v>542</v>
-      </c>
-      <c r="J314" s="16" t="s">
-        <v>542</v>
+      <c r="I314" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="J314" s="17" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10756,24 +11114,24 @@
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D336" s="0" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="G336" s="0" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="J336" s="0" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D339" s="0" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="G339" s="0" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="J339" s="0" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10790,13 +11148,13 @@
         <v>10</v>
       </c>
       <c r="G340" s="0" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="H340" s="0" t="n">
         <v>40</v>
       </c>
       <c r="J340" s="0" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="K340" s="0" t="n">
         <v>70</v>
@@ -10810,7 +11168,7 @@
         <v>1960</v>
       </c>
       <c r="D341" s="0" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="E341" s="0" t="n">
         <v>10</v>
@@ -10822,35 +11180,35 @@
         <v>40</v>
       </c>
       <c r="J341" s="0" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="K341" s="0" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="342" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="15" t="n">
+    <row r="342" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="B342" s="15" t="n">
+      <c r="B342" s="16" t="n">
         <v>1980</v>
       </c>
-      <c r="D342" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="E342" s="15" t="n">
+      <c r="D342" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="E342" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="G342" s="15" t="n">
+      <c r="G342" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="H342" s="15" t="n">
+      <c r="H342" s="16" t="n">
         <v>40</v>
       </c>
-      <c r="J342" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="K342" s="15" t="n">
+      <c r="J342" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="K342" s="16" t="n">
         <v>90</v>
       </c>
     </row>
@@ -10862,13 +11220,13 @@
         <v>1990</v>
       </c>
       <c r="D343" s="0" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="E343" s="0" t="n">
         <v>10</v>
       </c>
       <c r="G343" s="0" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="H343" s="0" t="n">
         <v>45</v>
@@ -10914,19 +11272,19 @@
         <v>2010</v>
       </c>
       <c r="D345" s="0" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="E345" s="0" t="n">
         <v>15</v>
       </c>
       <c r="G345" s="0" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="H345" s="0" t="n">
         <v>50</v>
       </c>
       <c r="J345" s="0" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="K345" s="0" t="n">
         <v>90</v>
@@ -10974,10 +11332,10 @@
         <v>3</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="D351" s="0" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10985,10 +11343,10 @@
         <v>1</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="D353" s="0" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10996,7 +11354,7 @@
         <v>1</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="D354" s="0" t="s">
         <v>149</v>
@@ -11004,12 +11362,12 @@
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B355" s="0" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B356" s="0" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11017,12 +11375,12 @@
         <v>1</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B358" s="0" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11030,7 +11388,7 @@
         <v>1</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11038,7 +11396,7 @@
         <v>1</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11046,7 +11404,7 @@
         <v>2</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11054,7 +11412,7 @@
         <v>2</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11062,7 +11420,7 @@
         <v>1</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11070,10 +11428,10 @@
         <v>2</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="D365" s="0" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11081,10 +11439,10 @@
         <v>1</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="D366" s="0" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11092,7 +11450,7 @@
         <v>6</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11100,36 +11458,36 @@
         <v>1</v>
       </c>
       <c r="B368" s="0" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B371" s="0" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D371" s="0" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B372" s="0" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="D372" s="0" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="0" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="D373" s="0" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B374" s="0" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11137,7 +11495,7 @@
         <v>2</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11145,10 +11503,10 @@
         <v>2</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="D376" s="0" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11156,13 +11514,13 @@
         <v>2</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="D377" s="0" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="E377" s="0" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11170,10 +11528,10 @@
         <v>1</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="D378" s="0" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
